--- a/Inżynierka - setup.xlsx
+++ b/Inżynierka - setup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iga\Documents\Studia\Inżynierka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iga\Documents\Studia\Inzynierka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A886173-BF28-4F24-83A9-E64CB48174CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1750CD05-770D-4B79-89A0-C9FEA95939B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{794E0199-F312-4AFC-A219-11D1B9F6333C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{794E0199-F312-4AFC-A219-11D1B9F6333C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ćwiczenia" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Ćwiczenie</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Wymachy poziome</t>
   </si>
   <si>
-    <t xml:space="preserve">Roll-ups </t>
-  </si>
-  <si>
     <t xml:space="preserve">prawe udo nad kolanem </t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t xml:space="preserve">prawa kostka </t>
   </si>
   <si>
-    <t>prawy nadgarstek</t>
-  </si>
-  <si>
     <t>Osoba</t>
   </si>
   <si>
@@ -124,6 +118,15 @@
   </si>
   <si>
     <t>Gyro_1</t>
+  </si>
+  <si>
+    <t>21-Dec-2020</t>
+  </si>
+  <si>
+    <t>Brzuszki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klatka piersiowa, prawa strona </t>
   </si>
 </sst>
 </file>
@@ -475,13 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -495,9 +492,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,14 +511,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239169BC-DD47-4BEE-B7BF-34EA4FBE1E6C}">
   <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +886,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -894,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -905,7 +908,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -916,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -924,10 +927,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -939,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AB30D1-5032-4FF5-A863-2B6902ABB58E}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -948,7 +951,7 @@
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
@@ -956,641 +959,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="E2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13">
+        <v>9</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="I3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="25" t="s">
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15">
-        <v>9</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="11"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="11"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="11"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="10"/>
+      <c r="B11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>"'Odczyty/"&amp;$A11&amp;"/"&amp;$B11&amp;"/"&amp;$C11&amp;"/"&amp;$D11&amp;".txt'"</f>
+        <v>'Odczyty/E2/Iga/21-Dec-2020/Gyro_1.txt'</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="11"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="10"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="11"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="8"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="27"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="10"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="27"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="11"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="11"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="8"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="11"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="8"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="11"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="8"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="11"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="11"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="8"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="11"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="11"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="27"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="8"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="11"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="8"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="11"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="11"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="10"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="11"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="10"/>
+      <c r="G33" s="8"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="11"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="11"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="27"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="10"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="10"/>
+      <c r="G38" s="8"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="11"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="10"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="11"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="10"/>
+      <c r="G40" s="8"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="11"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="10"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="11"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="10"/>
+      <c r="G42" s="8"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="10"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="10"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="11"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="14"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
